--- a/Wei/Optimization_Project_Data.xlsx
+++ b/Wei/Optimization_Project_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weich\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weich\Documents\GitHub\GD_reprod\Wei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F49123-5365-4B14-A476-7ED17290F7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B627B7-7DC6-4573-B288-0477A89152C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0C05DBC2-AC7F-4E11-A0E8-E86AA968C037}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>MNIST</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>CT Slice</t>
+  </si>
+  <si>
+    <t>Finito</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -175,12 +178,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A17A62-C663-4EA0-A135-60AA6687CD65}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,19 +576,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="9">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="C4" s="9">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="9">
         <v>2000000</v>
       </c>
       <c r="E4" s="9">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
       <c r="F4" s="9">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -609,7 +612,7 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="10">
-        <v>2.0000000000000001E-9</v>
+        <v>3E-9</v>
       </c>
       <c r="F6" s="10">
         <v>4.0000000000000003E-5</v>
@@ -626,13 +629,13 @@
         <v>0.12</v>
       </c>
       <c r="D7" s="10">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="10">
         <v>3.2000000000000001E-9</v>
       </c>
       <c r="F7" s="10">
-        <v>1.2E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -646,13 +649,38 @@
         <v>0.12</v>
       </c>
       <c r="D8" s="10">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="10">
-        <v>3.2000000000000001E-9</v>
+        <v>3.6E-9</v>
       </c>
       <c r="F8" s="10">
-        <v>1.2E-4</v>
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10">
+        <f>450/(0.9*B2)</f>
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="C9" s="10">
+        <f>5000/(0.9*C2)</f>
+        <v>0.11113333777866684</v>
+      </c>
+      <c r="D9" s="10">
+        <f>9000/(0.9*D2)</f>
+        <v>1.7211348474730298E-2</v>
+      </c>
+      <c r="E9" s="10">
+        <f>0.002/(0.9*E2)</f>
+        <v>4.3121059139454585E-9</v>
+      </c>
+      <c r="F9" s="10">
+        <f>3.5/(0.9*F2)</f>
+        <v>7.2689511941848392E-5</v>
       </c>
     </row>
   </sheetData>
